--- a/data/trans_camb/IMC_inf_MED_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IMC_inf_MED_R2-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,13 +527,13 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="F1" s="3" t="n"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-2,03</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-6,04</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,39</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-10,72</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>100,0</t>
+          <t>-8,71</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,99; 15,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,67; 22,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,63; 18,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,65; 8,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,78; 11,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,68; 8,37</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,97%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,83%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,2%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-17,12%</t>
         </is>
       </c>
     </row>
@@ -715,39 +715,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,0; 36,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,09; 51,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,45; 44,69</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,69; 22,55</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,8; 24,7</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,69; 18,62</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,39</t>
+          <t>-9,92</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-9,16</t>
+          <t>-19,87</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,03</t>
+          <t>-10,23</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-13,4</t>
+          <t>-9,07</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>-10,16</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-11,02</t>
+          <t>-13,65</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,7; 18,5</t>
+          <t>-16,23; -3,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-28,43; 11,65</t>
+          <t>-31,67; -11,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-18,57; 14,6</t>
+          <t>-15,7; -4,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-36,28; 10,78</t>
+          <t>-16,83; -0,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-10,97; 11,15</t>
+          <t>-14,27; -5,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-25,85; 5,58</t>
+          <t>-22,53; -6,6</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,72%</t>
+          <t>-22,15%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-18,11%</t>
+          <t>-44,38%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-3,97%</t>
+          <t>-18,74%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-26,23%</t>
+          <t>-16,62%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>-20,37%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-21,67%</t>
+          <t>-27,37%</t>
         </is>
       </c>
     </row>
@@ -871,39 +871,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-22,59; 44,58</t>
+          <t>-33,58; -7,76</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-50,75; 27,86</t>
+          <t>-67,62; -26,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-33,56; 32,19</t>
+          <t>-28,01; -8,11</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-69,3; 24,11</t>
+          <t>-29,33; -1,25</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-19,92; 24,3</t>
+          <t>-27,35; -11,76</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-47,68; 12,63</t>
+          <t>-44,32; -14,03</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-10,23</t>
+          <t>-12,72</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-9,65</t>
+          <t>-14,23</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-9,92</t>
+          <t>-7,61</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-17,5</t>
+          <t>-24,02</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-10,16</t>
+          <t>-9,95</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-12,67</t>
+          <t>-19,13</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-16,68; -3,59</t>
+          <t>-22,56; -1,75</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-17,69; -1,86</t>
+          <t>-26,41; -2,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-16,51; -3,52</t>
+          <t>-18,72; 3,19</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-25,62; -9,48</t>
+          <t>-35,31; -10,47</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-14,46; -5,87</t>
+          <t>-17,17; -1,35</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-17,89; -6,68</t>
+          <t>-26,96; -10,14</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-18,74%</t>
+          <t>-30,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-17,68%</t>
+          <t>-33,57%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-22,15%</t>
+          <t>-14,39%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-39,1%</t>
+          <t>-45,42%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-20,37%</t>
+          <t>-20,87%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-25,4%</t>
+          <t>-40,14%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1027,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-28,85; -7,37</t>
+          <t>-48,09; -5,19</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-30,74; -3,61</t>
+          <t>-55,65; -6,1</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-34,2; -8,44</t>
+          <t>-31,98; 6,82</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-54,44; -22,58</t>
+          <t>-62,13; -21,05</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-27,93; -12,41</t>
+          <t>-33,45; -2,67</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-35,24; -13,99</t>
+          <t>-53,8; -23,32</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-7,61</t>
+          <t>-10,25</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-23,41</t>
+          <t>-17,69</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-12,72</t>
+          <t>-8,39</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-14,06</t>
+          <t>-12,7</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-9,95</t>
+          <t>-9,22</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-18,75</t>
+          <t>-14,66</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-17,56; 2,79</t>
+          <t>-15,41; -5,42</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-35,89; -10,96</t>
+          <t>-27,0; -10,81</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-23,35; -3,51</t>
+          <t>-13,08; -2,95</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-25,14; -1,87</t>
+          <t>-18,69; -6,21</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-17,28; -2,45</t>
+          <t>-12,91; -5,71</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-27,9; -10,61</t>
+          <t>-20,52; -9,8</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-14,39%</t>
+          <t>-22,77%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-44,27%</t>
+          <t>-39,28%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-30,0%</t>
+          <t>-15,61%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-33,18%</t>
+          <t>-23,63%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-20,87%</t>
+          <t>-18,64%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-39,33%</t>
+          <t>-29,63%</t>
         </is>
       </c>
     </row>
@@ -1183,207 +1183,50 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-31,05; 5,91</t>
+          <t>-32,92; -12,81</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-62,1; -21,4</t>
+          <t>-57,31; -24,57</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-48,86; -9,15</t>
+          <t>-23,87; -5,91</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-55,64; -5,13</t>
+          <t>-34,2; -12,17</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-33,63; -5,52</t>
+          <t>-25,15; -11,97</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-54,05; -22,84</t>
+          <t>-41,73; -20,4</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-8,33</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-12,72</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-10,25</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>-16,33</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>-9,19</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>-14,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-13,31; -3,43</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-18,68; -6,35</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-15,51; -5,28</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>-21,54; -9,35</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>-12,57; -5,83</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>-18,38; -9,45</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>-15,51%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-23,7%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-22,77%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>-36,26%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>-18,58%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>-28,31%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-23,75; -6,23</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-33,56; -11,9</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-33,17; -12,43</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>-46,59; -21,67</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>-24,39; -12,18</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>-36,69; -19,68</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
